--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990451.040833284</v>
+        <v>3988198.961122076</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120.7740905403536</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1844348661911</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.0182967731494</v>
       </c>
       <c r="U4" t="n">
-        <v>81.4608434426853</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.240258403892</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428751</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.24238685723913</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.1183413816755</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>375.1765174622602</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,10 +1898,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701342</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428483</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.955370467305</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1569.101759311879</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.139242371467</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1200.139242371467</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="E2" t="n">
-        <v>1200.139242371467</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,7 +4328,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612892</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.840931351812</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1955.701599376001</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>537.2634481367795</v>
       </c>
       <c r="U4" t="n">
-        <v>838.6033255730482</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>583.9188373671614</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302007</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
@@ -4650,16 +4650,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.6664589680076</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1565.440264581601</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1196.47774764119</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>838.2120490344394</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>452.4237964361951</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>445.4782956869917</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645723</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,16 +5042,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,10 +6309,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400743</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908933</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908934</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908935</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908936</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057737</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703139</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121672</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121673</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121674</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270475</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138435</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703134</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188002</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908934</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908934</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908935</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908937</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925698</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490398</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188001</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908934</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327547</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7664,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
-        <v>57.2291039219385</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392193894</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392193907</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900058</v>
       </c>
       <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>4.060810969631661e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186745</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186739</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186737</v>
       </c>
-      <c r="H4" t="n">
-        <v>14826.69604186736</v>
-      </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287554</v>
+        <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988372</v>
+        <v>619511.085198837</v>
       </c>
       <c r="D6" t="n">
         <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>365784.9120168765</v>
+        <v>365750.1740914407</v>
       </c>
       <c r="F6" t="n">
-        <v>691197.3738242311</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="G6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="H6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="I6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987963</v>
       </c>
       <c r="J6" t="n">
-        <v>473666.1714269539</v>
+        <v>473631.4335015186</v>
       </c>
       <c r="K6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="L6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987963</v>
       </c>
       <c r="M6" t="n">
-        <v>606142.3458887194</v>
+        <v>606107.6079632842</v>
       </c>
       <c r="N6" t="n">
-        <v>691197.3738242314</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="O6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987963</v>
       </c>
       <c r="P6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987959</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,22 +26984,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>261.1562795319082</v>
       </c>
       <c r="F2" t="n">
-        <v>31.69161087552038</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,22 +27585,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>29.53065250301984</v>
       </c>
       <c r="U4" t="n">
-        <v>204.7509947629276</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.49358325958855</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231255</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>193.467268531798</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.46631197041933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>35.74520819119329</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>225.1538233277209</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,22 +28090,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.229438619875195e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28618,10 +28618,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.04585765335475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
